--- a/Tweets/tweets_Game Marvel's Spider-Man - PS4_201809101603.xlsx
+++ b/Tweets/tweets_Game Marvel's Spider-Man - PS4_201809101603.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ienzo\Desktop\Insper\2° Semestre\Ciência dos Dados\Projetos\Projeto_2_CD\Tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709236B2-2B46-4E23-BB98-AEAFE199E8CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5440D2AB-BC7F-4350-A7EB-2ED53699D3E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>Treinamento</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>relevancia</t>
   </si>
 </sst>
 </file>
@@ -499,245 +502,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tweets/tweets_Game Marvel's Spider-Man - PS4_201809101603.xlsx
+++ b/Tweets/tweets_Game Marvel's Spider-Man - PS4_201809101603.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ienzo\Desktop\Insper\2° Semestre\Ciência dos Dados\Projetos\Projeto_2_CD\Tweets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gugat\Desktop\Insper DS 2018.1\2 semestre\Ciencia dos dados\Projeto_2_CD\Tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5440D2AB-BC7F-4350-A7EB-2ED53699D3E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9332CDA-F22D-41A5-B736-887625C8FAAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">

--- a/Tweets/tweets_Game Marvel's Spider-Man - PS4_201809101603.xlsx
+++ b/Tweets/tweets_Game Marvel's Spider-Man - PS4_201809101603.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gugat\Desktop\Insper DS 2018.1\2 semestre\Ciencia dos dados\Projeto_2_CD\Tweets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni D. Santos\Desktop\Insper\2_Semestre\Ciência dos Dados\Projetos\Projeto_2_CD\Tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9332CDA-F22D-41A5-B736-887625C8FAAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655200C4-F4AB-4693-A080-F736EB2B9328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="185">
   <si>
     <t>Treinamento</t>
   </si>
@@ -101,13 +101,571 @@
   </si>
   <si>
     <t>relevancia</t>
+  </si>
+  <si>
+    <t>rt @rafafernandes64: meu deus: rapaz pediu à insomniac pra colocar um pedido de casamento à namorada dele no jogo, os caras colocaram como…</t>
+  </si>
+  <si>
+    <t>analisaram os gráficos de spider-man e afirmaram: não houve downgrade https://t.co/pybsi6xj6f https://t.co/gvej2vsidh</t>
+  </si>
+  <si>
+    <t>rt @esponjinha_man: seria muito mau comprar 3 jogos para a ps4 no espaço de um mês? 😅
+é que o spider man parece estar do caralho</t>
+  </si>
+  <si>
+    <t>rt @skate45881945: @nasa
+@disney
+@mariasharapova
+@lamborghini
+ e 
+@katyperry
+@leticiabufoni
+@nba
+@claudialeitte
+@nike
+@hond…</t>
+  </si>
+  <si>
+    <t>spider-man: exclusivo do ps4 chega quebrando vários recordes e deixando god of war pra trás https://t.co/roflan6u4h</t>
+  </si>
+  <si>
+    <t>eu tô empolgadoooooo https://t.co/n0cxqwunlq</t>
+  </si>
+  <si>
+    <t>zerando spider man ps4 dublado: https://t.co/kxphzre9r8 via @youtube</t>
+  </si>
+  <si>
+    <t>alguem me da um spider man p ps</t>
+  </si>
+  <si>
+    <t>@nasa
+@disney
+@mariasharapova
+@lamborghini
+ e 
+@katyperry
+@leticiabufoni
+@nba
+@claudialeitte
+@nike
+@honda
+ quem dirá esse cara ser o spider man. eu falo: - que nada, esse papo de impossível não existe. basta bice ler a palavra.</t>
+  </si>
+  <si>
+    <t>alguém me empresta um ps4 ai para eu zerar o spider man, não quero comprar um ps4 para vender daqui um mês de novo
+já fiz isso no god of war. ehuaheuaheuahueah</t>
+  </si>
+  <si>
+    <t>só uma live de spider man p salvar</t>
+  </si>
+  <si>
+    <t>nem far cry 5, nem god of war. spider-man vendeu mais na primeira semana que qualquer jogo de 2018 no mesmo período.
+https://t.co/t1dn3pzmqk</t>
+  </si>
+  <si>
+    <t>#whitegirlproblems spider man e shadow of the tomb raider, um em cada semana? fica difícil assim..</t>
+  </si>
+  <si>
+    <t>rt @th3jow: spider man, o herói da vizinhança!! !freesub, !loots | |1 bit e a mulher fala![br/en]    https://t.co/sn6wannwik
+https://t.co/s…</t>
+  </si>
+  <si>
+    <t>https://t.co/gnatqmk6zq cara conseguiu a inserção do pedido de casamento no jogo, mas acabou o relacionamento antes de o game ser lançado e vai tirar agora.. que fase</t>
+  </si>
+  <si>
+    <t>spider-man: easter egg com pedido de casamento deu muito errado; entenda https://t.co/mfchmrchon via @meups4</t>
+  </si>
+  <si>
+    <t>rt @vagazoide: tentando achar um detonado de spider man ps4 que não tenha algum arrombado falando por cima pq eu só quero ver o jogo que eu…</t>
+  </si>
+  <si>
+    <t>pessoas jogando spider man e eu querendo meu ps4 lara amanhã</t>
+  </si>
+  <si>
+    <t>i liked a @youtube video https://t.co/im8imjxawt marvel's spider man - 1ª temporada - episódio 09 - ultimate homem aranha</t>
+  </si>
+  <si>
+    <t>estou a curtir muito de spider man, que jogo</t>
+  </si>
+  <si>
+    <t>quero muito comprar o spider man para o ps4, assisti umas gameplay e fiquei fascinado com o jogo</t>
+  </si>
+  <si>
+    <t>tou a ver os videos todos do @theremedyblog de spider man.  sinto que tou a falhar ao riczão...</t>
+  </si>
+  <si>
+    <t>rt @redvelvetzx: ia estudar pra prova de bio mas o alanzinho soltou vídeo de spider man né..... prioridades</t>
+  </si>
+  <si>
+    <t>ofereçam spider man p ps4 por favor</t>
+  </si>
+  <si>
+    <t>eu achei que minha life não tava legal, fui assistir o spider man do tobey e chorei por ele, na moral</t>
+  </si>
+  <si>
+    <t>jogos: marvel’s spider-man foi o jogo mais vendido no reino unido na semana passada https://t.co/wufvnngoal</t>
+  </si>
+  <si>
+    <t>confira um resumo das novidades mais quentes do mundo gamer.
+:d https://t.co/joyzaxz4of https://t.co/o7k5u2mnue</t>
+  </si>
+  <si>
+    <t>a analise tecnica  de spider man ficara em nossos corações mas quem vive de passado e muser #partiu tomb raider!!! https://t.co/byovdkexs7</t>
+  </si>
+  <si>
+    <t>ps4: spider man se tornando jogo mais vendido do ano!
+xbox: halo5 chegando ao pc!
+boa semana a todos 😹♥️
+https://t.co/pi6mwrku4l</t>
+  </si>
+  <si>
+    <t>rt @tomhollandbr: #spidermanfarfromhome terá cenas filmadas na cidade de praga e liberec, na república checa, a partir do dia 17 de setembr…</t>
+  </si>
+  <si>
+    <t>eu ia botar spider man do ramones e levar o aranha pra frente de onde era o cbgb https://t.co/7qg12l5ay8</t>
+  </si>
+  <si>
+    <t>eu ainda não acredito que eu tô gostando do novo spider man merda.</t>
+  </si>
+  <si>
+    <t>tem mais gameplay de #spidermanps4 no ar! neste episódio, o homem-aranha investiga o mistério dos demônios, a facção que ataca propriedades do rei do crime https://t.co/0wf0dfed9a</t>
+  </si>
+  <si>
+    <t>falta muito pro meu spider man chegar gente?</t>
+  </si>
+  <si>
+    <t>"como só isso seria uma tragédia pouca, a história continua. a ex-namorada agora está namorando o irmão de schultz." caraaaaaaa-
+eu juro que falei bem alto aqui no serviço. por sorte tô sozinho na sala já. mas que coisa... https://t.co/7w3e7opkqq</t>
+  </si>
+  <si>
+    <t>rt @maxmrm_gameplay: spider man ps4 pro - #12: o final emocionante e surpreendente || gameplay em português pt-br: https://t.co/dl4sobqpjp…</t>
+  </si>
+  <si>
+    <t>a @insomniacgames fez um ótimo trabalho ao tornar cada sistema interessante, permitindo que você seja criativo e ao mesmo tempo se expresse como jogador.
+#spidermanps4 
+https://t.co/cuzapokx95</t>
+  </si>
+  <si>
+    <t>rt @fuckmycute: eu acho que eu seria uma pessoa bem mais feliz jogando spider man</t>
+  </si>
+  <si>
+    <t>após sucesso de spider-man, insomniac quer fazer mais games de heróis https://t.co/ycz2l06hcx https://t.co/vlo00hozij</t>
+  </si>
+  <si>
+    <t>rt @drakesincero1: enfim, spiderman já é um sucesso de críticas e de vendas, por se exclusivo do console vencedor e relevante. marquem seus…</t>
+  </si>
+  <si>
+    <t>quero o novo spider man para ps4...</t>
+  </si>
+  <si>
+    <t>eu jurava que não seria assim, mas é: spider man é maravilhoso!
+nossa primeira de muitas lives ate terminar mais um brilhante e incrível game....
+começamos nossa semana já voando!
+obrigado!!
+voltamos 21:30 com mais 🕷️
+💜</t>
+  </si>
+  <si>
+    <t>insomniac vai tirar easter egg de pedido de casamento de “spider-man” - https://t.co/lnwob0kmyd https://t.co/qs8iftcv4i</t>
+  </si>
+  <si>
+    <t>rt @bafioooooo: oh ric caralho, mete lá video de spider man zé</t>
+  </si>
+  <si>
+    <t>olha essa história huaushasuhasuahsuah https://t.co/sbi6ynxm1p</t>
+  </si>
+  <si>
+    <t>o novo spider man tá mt bom msm sos
+alguém me dá um vídeo game</t>
+  </si>
+  <si>
+    <t>@nasa @disney @mariasharapova @lamborghini @katyperry @leticiabufoni @nba @claudialeitte @nike @honda seja você, mas tipo assim. eu sou eu, mas eu pude ser o spider man.</t>
+  </si>
+  <si>
+    <t>rt @soulunabrasill: feliz cumpleaños a lo pior spider man. 😂 
+olha o @_ruggero mano kkkkk 
+@michaelronda ta fofo é o @gvietto6 tb https://t…</t>
+  </si>
+  <si>
+    <t>após sucesso de spider-man, insomniac quer fazer mais games de heróis https://t.co/7ftgbh6lyu #falandodegames #ps4 #playstation #sony #meups4</t>
+  </si>
+  <si>
+    <t>esse jogo do spider man que lançou no ps4 tá um show véi, essas horas da até raiva de ter xbox one</t>
+  </si>
+  <si>
+    <t>eu só queria ta jogando spider man o dia todo q nem o edu</t>
+  </si>
+  <si>
+    <t>eu acho que eu seria uma pessoa bem mais feliz jogando spider man</t>
+  </si>
+  <si>
+    <t>essa mary jane do jogo do spider man é mt crush</t>
+  </si>
+  <si>
+    <t>@hsogameplays @brksedu @cvaxtbi sim eu sei... mas normalmente o embargo cai um pouco antes. exemplo: spider man caiu uma dia antes ... far cry 5 caiu 5 dias antes do lançamento, se nao me engano.</t>
+  </si>
+  <si>
+    <t>rt @brains9: insomniac vai tirar easter egg de pedido de casamento de “spider-man” - https://t.co/lnwob0kmyd https://t.co/qs8iftcv4i</t>
+  </si>
+  <si>
+    <t>rt @voxeloficial: pedido de casamento presente no game é fruto de um relacionamento que acabou meses antes de seu lançamento. #voxel #somos…</t>
+  </si>
+  <si>
+    <t>estou aceitando o jogo do homem aranha de aniversário. obrigado
+@insomniacgames 
+i am accepting spider man as a gift for my birthday. thank u very much</t>
+  </si>
+  <si>
+    <t>por sinal #dragonquestxi  é sem duvidas o melhor jrpg que joguei em anos, terminei a primeira  metade da história e sinceramente o jogo me deixa com um sorriso no  rosto de quão bom ele é. uma pena que o marketing dele foi ruim e saiu junto com o spider man https://t.co/zrsbvulazi</t>
+  </si>
+  <si>
+    <t>vendeu quase o dobro de god of war.
+https://t.co/xg1d3empkc</t>
+  </si>
+  <si>
+    <t>queria o jogo do spider man aff</t>
+  </si>
+  <si>
+    <t>top reino unido: spider-man é o jogo de 2018 que vendeu mais rápido https://t.co/6lz7gd9f90 https://t.co/qbsztpbgxe</t>
+  </si>
+  <si>
+    <t>spider man r$ 195,00 em dinheiro. 
+#consertgame 
+#ps4 
+#spiderman em consert game https://t.co/zhwyg3aqa5</t>
+  </si>
+  <si>
+    <t>namoral, preciso comprar esse spider man, tnc</t>
+  </si>
+  <si>
+    <t>to tao triste alguem compra o spider man d ps4 p eu joga ai....</t>
+  </si>
+  <si>
+    <t>rt @nescsantos: os gráficos do spider man tão só incríveis de mais</t>
+  </si>
+  <si>
+    <t>seria muito mau comprar 3 jogos para a ps4 no espaço de um mês? 😅
+é que o spider man parece estar do caralho</t>
+  </si>
+  <si>
+    <t>joguei spider man por 40min. está fantástico. vamos ver se a história acompanha a gameplay</t>
+  </si>
+  <si>
+    <t>o novo jogo do spider man tá brutal</t>
+  </si>
+  <si>
+    <t>marvel's spider-man tem easter egg de pedido de casamento que deu errado - entenda: https://t.co/olm74uwswd https://t.co/zv8vsanjdy</t>
+  </si>
+  <si>
+    <t>queria jogar spider man, vou ver se compro um pro “léo” rsrs</t>
+  </si>
+  <si>
+    <t>ff alguém me ve uma fantasia do spider man kkkkk</t>
+  </si>
+  <si>
+    <t>@vascofranco_ nao é trocar que nem eu faço isso banana, mas é emprestar te um enquanto emprestas me o spider man 😂</t>
+  </si>
+  <si>
+    <t>feliz cumpleaños a lo pior spider man olha o @_ruggero mano kkkkk  @michaelronda ta fofo é o @gvietto6 tb</t>
+  </si>
+  <si>
+    <t>rt @tearsgodown: uma semana atrasado, mas saiu https://t.co/somys2imls</t>
+  </si>
+  <si>
+    <t>rt @napgaiola: to tao triste alguem compra o spider man d ps4 p eu joga ai....</t>
+  </si>
+  <si>
+    <t>os gráficos do spider man tão só incríveis de mais</t>
+  </si>
+  <si>
+    <t>spider man está tão bommm</t>
+  </si>
+  <si>
+    <t>@nilsonjr eu até ia procurar pra vc no dicionário mas tô ocupado jogando spider man</t>
+  </si>
+  <si>
+    <t>rt @fuck_off_matt: spider man já se tornou o game mais vendido de 2018 vendendo quase o dobro de god of war no lançamento. 
+e é por essas…</t>
+  </si>
+  <si>
+    <t>uma semana atrasado, mas saiu https://t.co/somys2imls</t>
+  </si>
+  <si>
+    <t>@wuantt o jogo do spider man tá fixe?</t>
+  </si>
+  <si>
+    <t>irritadíssima porque cheguei plena em casa, fui comprar o spider man na psn e esse caralho cobrou do meu cartão, recebi email de confirmação e tudo, e no console apareceu que deu erro e nem aparece o jogo na biblioteca. alou @playstation_br @perguntaplay :)))</t>
+  </si>
+  <si>
+    <t>rt @elinhonel: esse spider man novo ta muito foda, inclusive todos os jogos do homem aranha que joguei eram fodas demais</t>
+  </si>
+  <si>
+    <t>@witcherclash @xcapim360 @marcosrbnl por ano..haha, ralé, se realmente tivesse o ps4 e tivesse jogado o spider man nao estava defecando pelos dedos, eu tenho todos todos os consoles desde o lançamento inclusive os controles nacon do ps4 e elite no xbox, gasto em torno de 800 reais por mês com jogos e assinaturas</t>
+  </si>
+  <si>
+    <t>rt @nerdbunker: spider-man tem easter egg com pedido de casamento que acabou em desastre https://t.co/2fji12kpck https://t.co/6umn6ulvft</t>
+  </si>
+  <si>
+    <t>rt @kokzviana: no momento não preciso de muito pra ser feliz
+apenas que alguém me dê o novo jogo do spider man</t>
+  </si>
+  <si>
+    <t>provavelmente irei danificar a tela do meu celular de tanto babar nessas gameplays do spider man</t>
+  </si>
+  <si>
+    <t>spider man já se tornou o game mais vendido de 2018 vendendo quase o dobro de god of war no lançamento. 
+e é por essas e outras que vcs são uns frustrados caixistas, não importa oq vcs façam a sony e o ps4 sempre destrói vcs no final, fracassados 😹🐑 https://t.co/dwceva0k2j</t>
+  </si>
+  <si>
+    <t>rt @joaaao_peedro: alguem me da um spider man p ps</t>
+  </si>
+  <si>
+    <t>o cara pediu pra ter um easter egg pedindo a mão da namorada dele em casamento dentro do jogo novo do spider man.
+pouco antes do lançamento do jogo a moça termina com ele pra ficar com o irmão do cara. wtf?
+https://t.co/xny5u5dwyb</t>
+  </si>
+  <si>
+    <t>rt @avengrez: a não fode ter que ler q gostamos do spider man em ps4 só pq é "baba ovo do tom holland"</t>
+  </si>
+  <si>
+    <t>post diário chorando pq não posso jogar o spider man novo</t>
+  </si>
+  <si>
+    <t>@_natalynoemia @alanzoka ele nem terminou o spider man ainda, sem falar que ele pretende jogar tomb raider</t>
+  </si>
+  <si>
+    <t>spider-man é o jogo de 2018 que mais rápido vendeu no reino unido https://t.co/1ppxxsic2u</t>
+  </si>
+  <si>
+    <t>spider-man | revelada participação de stan lee no jogo https://t.co/c7qhnihfk9 https://t.co/0wxiuyuatt</t>
+  </si>
+  <si>
+    <t>rt @meups4: insomniac games faz surpresa para pedido de casamento...mas deu tudo muito errado... https://t.co/ru9ltev8hp</t>
+  </si>
+  <si>
+    <t>compensa comprar spider man?</t>
+  </si>
+  <si>
+    <t>spider-man e o easter egg mais triste da história - meio bit https://t.co/r9sv1teswd</t>
+  </si>
+  <si>
+    <t>quando o spider man baixar de preço vou comprar mas deviam lançar era um novo jogo do iron man</t>
+  </si>
+  <si>
+    <t>spider man - o filme (dublado) https://t.co/htslmuhum3 via @youtube</t>
+  </si>
+  <si>
+    <t>spider-man e o easter egg mais triste da história - https://t.co/ujcd3yyppo #woahdude</t>
+  </si>
+  <si>
+    <t>agora que eu terminei o spider man novo posso voltar pras minhas atividades normais.</t>
+  </si>
+  <si>
+    <t>queria jogar spider man 😢😩</t>
+  </si>
+  <si>
+    <t>i liked a @youtube video https://t.co/g2yqbfcflm spider man - analise técnica, engine, iluminação, técnicas utilizadas e detalhes</t>
+  </si>
+  <si>
+    <t>e a vontade de comprar o ps4 pra jogar o novo spider man ta como?</t>
+  </si>
+  <si>
+    <t>so essa platina do spider man amanha</t>
+  </si>
+  <si>
+    <t>rt @luckysalamander: spider man (ps4) - derrubando o tombstone! [ o fim é para os fracos #1 - playstation 4 pro]: https://t.co/drqdzuvfsw v…</t>
+  </si>
+  <si>
+    <t>eu não sei, mas acho q vou comprar o spider man para a ps4 ahah</t>
+  </si>
+  <si>
+    <t>tô afinzao pra jogar o jogo do spider man</t>
+  </si>
+  <si>
+    <t>agora to triste que não to dormindo com a nicky e que não tenho um ps4 pra jogar o jogo novo do spider man.</t>
+  </si>
+  <si>
+    <t>@nasa
+@disney
+@mariasharapova
+@lamborghini
+ e 
+@katyperry
+@leticiabufoni
+@nba
+@claudialeitte
+@nike
+@honda
+ dá pra escrever mais um pouco antes da cena nas ruas de fortaleza city. falar de spider man, de hollywiodiano.</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/6rekpvgfgk spider man - parte #4 - a torre dos vingadores!! - dublado pt-br</t>
+  </si>
+  <si>
+    <t>microsoft por favor compra os direitos desse jogo do spider man, eu preciso jogar isso</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/xafgclzlol spider man - parte #1 - o início no modo hard!! - dublado pt-br</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo do @youtube https://t.co/josqj3jpdm spider man ps4 pro - #11: o grande segredo é revelado || melhor episódio da</t>
+  </si>
+  <si>
+    <t>to com muita raiva de spider man ter lançado logo na minha semana de provas... ahhhhh</t>
+  </si>
+  <si>
+    <t>@victorserafim porra meu parceiro, nunca fui mt chegado em fifa, acredita? 😓 mas compra sim só pra dar uma jogadinha de vez em quando, desestressar. meu problema com o spider man é que quando ele estiver sob o meu domínio so vou conseguir descansar a noite quando ele estiver platinado hahaha</t>
+  </si>
+  <si>
+    <t>já vi o novo episódio de spider man do tio ric, agora é só esperar pelas 18</t>
+  </si>
+  <si>
+    <t>@geovannitoledo pra você fica fácil, não tem marvel’s spider man pra comprar</t>
+  </si>
+  <si>
+    <t>rt @mutoide: gráfico do jogo do spider man pra ps4 melhor q minha propria vista</t>
+  </si>
+  <si>
+    <t>spider man 1 é bom demais</t>
+  </si>
+  <si>
+    <t>jogo do spider man tá mt top</t>
+  </si>
+  <si>
+    <t>spider-man e o easter egg mais triste da história https://t.co/rfokpqigpo</t>
+  </si>
+  <si>
+    <t>spider man, o herói da vizinhança!! !freesub, !loots | |1 bit e a mulher fala![br/en]    https://t.co/sn6wannwik
+https://t.co/sn6wannwik
+https://t.co/sn6wannwik</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/mg7gbtd2ig (ps4 pro) - #5: spider-vigilante</t>
+  </si>
+  <si>
+    <t>ia estudar pra prova de bio mas o alanzinho soltou vídeo de spider man né..... prioridades</t>
+  </si>
+  <si>
+    <t>pedido de casamento presente no game é fruto de um relacionamento que acabou meses antes de seu lançamento. #voxel #somosvoxel https://t.co/fthcnm7ff0</t>
+  </si>
+  <si>
+    <t>spider-man' de ps4 terá atualização para remover pedido de casamento escondido https://t.co/zznhcbt3fj</t>
+  </si>
+  <si>
+    <t>zerei o spider man e não to sabendo lidar com o final</t>
+  </si>
+  <si>
+    <t>quando títulos como marvel's spider man são lançados que eu me lembro que prefiro 1000000000x jogos single player do que multiplayer....</t>
+  </si>
+  <si>
+    <t>o novo jogo do spider man já saiu?</t>
+  </si>
+  <si>
+    <t>@marcela_fan mana tu tá divando lá no spider man que é lançamento, como que eu chamo pra jogar destiny 😂</t>
+  </si>
+  <si>
+    <t>i liked a @youtube video https://t.co/dd15uop9ka spider man no míssil teleguiado</t>
+  </si>
+  <si>
+    <t>trabaia pra pagar spider man do ps4</t>
+  </si>
+  <si>
+    <t>ok, vou comprar um ps4, já to passando mal vendo spider man imagina kingdom hearts 3</t>
+  </si>
+  <si>
+    <t>rt @supergames2x: review de spider man:
+desta vez o cabeça de teia</t>
+  </si>
+  <si>
+    <t>só vou me contentar quando pegar 100% no spider man</t>
+  </si>
+  <si>
+    <t>@_danielalves96 só quero o novo spider man</t>
+  </si>
+  <si>
+    <t>o final de spider man ps4 é uma das melhores coisas relacionadas a heróis no últimos anos.
+isso que faz a exclusividade me deixar puto, o homem aranha é maior que ps ou xbox, vacilo deixar ele restrito a apenas uma plataforma...</t>
+  </si>
+  <si>
+    <t>e eu sou o spider man https://t.co/s6im7vkl4r</t>
+  </si>
+  <si>
+    <t>todo mundo falando do jogo do spider man que eu fiquei até com vontade de jogar</t>
+  </si>
+  <si>
+    <t>no final do spider, um garoto vira um spider man, dai a sony lança um trailer de um filme com dois spider, mano pqp massa</t>
+  </si>
+  <si>
+    <t>que dó! :~ spider-man e o easter egg mais triste da história https://t.co/cswk4ktzvj</t>
+  </si>
+  <si>
+    <t>eu tava vendo minhas finanças pra ver se eu compro o novo jogo do spider man ou um vans do van gogh e olha o spider man ta valendo mt a pena</t>
+  </si>
+  <si>
+    <t>spider-man é o jogo vendido mais rapidamente em 2018 https://t.co/75dm3uasx6 https://t.co/c1cior0j4w</t>
+  </si>
+  <si>
+    <t>alguém me dá o novo jogo do spider man de ps4 de aniversário ?</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/lncqlrb3ej spider man - parte #7 - essa cena foi incrível!! - dublado pt-br</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/nsgtrolqlm spider man - parte #4 - a torre dos vingadores!! - dublado pt-br</t>
+  </si>
+  <si>
+    <t>bundlezinho sensacional de ps4 pro, todo estilizado em spider-man! coisa marlinda! confira as fotos no nosso blog! https://t.co/pjgmahemsx</t>
+  </si>
+  <si>
+    <t>mais um episódio da nossa série sensacional do nosso querido spider man. 
+https://t.co/chhcsowowu</t>
+  </si>
+  <si>
+    <t>spider man ps4 pro - #12: o final emocionante e surpreendente || gameplay em português pt-br - https://t.co/vfmicglenh https://t.co/e9nrqez3sr</t>
+  </si>
+  <si>
+    <t>marvel's spider-man: o amigo da vizinhança voltou! https://t.co/xllozoiuih https://t.co/aykkhaaose</t>
+  </si>
+  <si>
+    <t>o alan vai começar uma série do novo jogo do spider man mas eu já estou a ver de outro gajo :/</t>
+  </si>
+  <si>
+    <t>essa minha internet é uma vergonha, 9h  baixando e ainda não terminou o spider man</t>
+  </si>
+  <si>
+    <t>fiz meu trabalho rapidinho e sai da escola agora correndo pra chegar em casa e jogar spider man</t>
+  </si>
+  <si>
+    <t>um npc do marvel spider man me parou e falou "vc esconde algum problema de pele debaixo dessa mascara feia ai?" ai o homem aranha respondeu "eu entendi a referencia". referencia em dobro me us amigos https://t.co/bj1qt0iutm</t>
+  </si>
+  <si>
+    <t>é pedir dms um ps4 com fifa 19 e spider man?</t>
+  </si>
+  <si>
+    <t>@octaviobuzz 
+boa tarde octávio,
+ainda não recebi o contato de vcs para receber o game do spider man.
+poderia me orientar sobre como proceder?
+obrigado.</t>
+  </si>
+  <si>
+    <t>spider-man e o easter egg mais triste da história https://t.co/k2p94wuqdo https://t.co/6qqe17ccxz</t>
+  </si>
+  <si>
+    <t>spider-man e o easter egg mais triste da história https://t.co/9vftooi6bm</t>
+  </si>
+  <si>
+    <t>gostei de um vídeo @youtube https://t.co/f350tcjdg9 do sorteio do controle do spider man ps4</t>
+  </si>
+  <si>
+    <t>o alan surtando enquanto joga spider man</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +680,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,16 +721,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,19 +1078,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48:B347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +1098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -530,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -538,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -546,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -554,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -562,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -570,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -578,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -586,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -594,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -602,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -610,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -618,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -626,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -634,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -642,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -650,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -658,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -666,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -674,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -682,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -690,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -698,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -706,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -714,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -722,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -730,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -738,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -746,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -754,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -762,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -770,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -778,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -786,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -794,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -802,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -810,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -818,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -826,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -834,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -842,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -850,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -858,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -866,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -874,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -882,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -890,7 +1466,2410 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B219" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B290" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B297" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B300" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B302" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B307" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B309" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B310" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B313" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B315" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B317" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B320" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B323" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B327" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B330" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B331" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B332" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B333" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B334" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B335" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B336" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B337" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B339" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B340" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B343" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B344" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B347" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A70" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -901,9 +3880,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
